--- a/Backend/data/13_DA Project_1.xlsx
+++ b/Backend/data/13_DA Project_1.xlsx
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
